--- a/JupyterNotebooks/AveragedIntensites/SA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SA-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9955268525962422</v>
+        <v>0.995526852596242</v>
       </c>
       <c r="D13">
         <v>0.9957446280651487</v>
@@ -1078,7 +1078,7 @@
         <v>0.9919090989159894</v>
       </c>
       <c r="G13">
-        <v>0.9955268525962422</v>
+        <v>0.995526852596242</v>
       </c>
       <c r="H13">
         <v>0.9957446280651487</v>
@@ -1096,7 +1096,7 @@
         <v>0.9940568618051426</v>
       </c>
       <c r="M13">
-        <v>0.9954987230375348</v>
+        <v>0.9954987230375346</v>
       </c>
       <c r="N13">
         <v>0.9912953393013957</v>
@@ -1105,7 +1105,7 @@
         <v>0.9925066575287557</v>
       </c>
       <c r="P13">
-        <v>0.9920590896461767</v>
+        <v>0.9920590896461766</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1166,19 +1166,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.930476693622556</v>
+        <v>0.9304766936225563</v>
       </c>
       <c r="D15">
         <v>1.083185521174754</v>
       </c>
       <c r="E15">
-        <v>0.9555256776006361</v>
+        <v>0.9555256776006366</v>
       </c>
       <c r="F15">
         <v>1.026233510769793</v>
       </c>
       <c r="G15">
-        <v>0.930476693622556</v>
+        <v>0.9304766936225563</v>
       </c>
       <c r="H15">
         <v>1.083185521174754</v>
@@ -1202,10 +1202,60 @@
         <v>1.019355599387695</v>
       </c>
       <c r="O15">
-        <v>0.9988553507919349</v>
+        <v>0.9988553507919351</v>
       </c>
       <c r="P15">
         <v>0.9981321589171304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9783622755493311</v>
+      </c>
+      <c r="D16">
+        <v>0.7742431438492958</v>
+      </c>
+      <c r="E16">
+        <v>0.8977956654838386</v>
+      </c>
+      <c r="F16">
+        <v>0.8651770259480333</v>
+      </c>
+      <c r="G16">
+        <v>0.9783622755493311</v>
+      </c>
+      <c r="H16">
+        <v>0.7742431438492958</v>
+      </c>
+      <c r="I16">
+        <v>1.17407315656008</v>
+      </c>
+      <c r="J16">
+        <v>0.8497568785102666</v>
+      </c>
+      <c r="K16">
+        <v>1.078894377174901</v>
+      </c>
+      <c r="L16">
+        <v>0.8964656254791129</v>
+      </c>
+      <c r="M16">
+        <v>0.9783622755493311</v>
+      </c>
+      <c r="N16">
+        <v>0.8360194046665672</v>
+      </c>
+      <c r="O16">
+        <v>0.8788945277076247</v>
+      </c>
+      <c r="P16">
+        <v>0.9393460185693574</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9783622755493311</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW10.xlsx
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.995526852596242</v>
+        <v>0.9955268525962422</v>
       </c>
       <c r="D13">
         <v>0.9957446280651487</v>
@@ -1081,7 +1081,7 @@
         <v>0.9919090989159894</v>
       </c>
       <c r="G13">
-        <v>0.995526852596242</v>
+        <v>0.9955268525962422</v>
       </c>
       <c r="H13">
         <v>0.9957446280651487</v>
@@ -1099,7 +1099,7 @@
         <v>0.9940568618051426</v>
       </c>
       <c r="M13">
-        <v>0.9954987230375346</v>
+        <v>0.9954987230375348</v>
       </c>
       <c r="N13">
         <v>0.9912953393013957</v>
@@ -1108,7 +1108,7 @@
         <v>0.9925066575287557</v>
       </c>
       <c r="P13">
-        <v>0.9920590896461766</v>
+        <v>0.9920590896461767</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1169,19 +1169,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9304766936225563</v>
+        <v>0.930476693622556</v>
       </c>
       <c r="D15">
         <v>1.083185521174754</v>
       </c>
       <c r="E15">
-        <v>0.9555256776006366</v>
+        <v>0.9555256776006361</v>
       </c>
       <c r="F15">
         <v>1.026233510769793</v>
       </c>
       <c r="G15">
-        <v>0.9304766936225563</v>
+        <v>0.930476693622556</v>
       </c>
       <c r="H15">
         <v>1.083185521174754</v>
@@ -1205,7 +1205,7 @@
         <v>1.019355599387695</v>
       </c>
       <c r="O15">
-        <v>0.9988553507919351</v>
+        <v>0.9988553507919349</v>
       </c>
       <c r="P15">
         <v>0.9981321589171304</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3305079999999967</v>
+        <v>0.9783622755493311</v>
       </c>
       <c r="D10">
-        <v>0.03816400000000007</v>
+        <v>0.7742431438492958</v>
       </c>
       <c r="E10">
-        <v>1.162688</v>
+        <v>0.8977956654838386</v>
       </c>
       <c r="F10">
-        <v>0.9542199999999997</v>
+        <v>0.8651770259480333</v>
       </c>
       <c r="G10">
-        <v>0.3305079999999967</v>
+        <v>0.9783622755493311</v>
       </c>
       <c r="H10">
-        <v>0.03816400000000007</v>
+        <v>0.7742431438492958</v>
       </c>
       <c r="I10">
-        <v>1.437944000000002</v>
+        <v>1.17407315656008</v>
       </c>
       <c r="J10">
-        <v>0.8471760000000002</v>
+        <v>0.8497568785102666</v>
       </c>
       <c r="K10">
-        <v>1.325852000000001</v>
+        <v>1.078894377174901</v>
       </c>
       <c r="L10">
-        <v>0.3745759999999998</v>
+        <v>0.8964656254791129</v>
       </c>
       <c r="M10">
-        <v>0.3305079999999967</v>
+        <v>0.9783622755493311</v>
       </c>
       <c r="N10">
-        <v>0.6004259999999999</v>
+        <v>0.8360194046665672</v>
       </c>
       <c r="O10">
-        <v>0.621394999999999</v>
+        <v>0.8788945277076247</v>
       </c>
       <c r="P10">
-        <v>0.8088909999999998</v>
+        <v>0.9393460185693574</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4095874999999999</v>
+        <v>1.248855457822235</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.07329703369301814</v>
       </c>
       <c r="E11">
-        <v>0.5927875000000016</v>
+        <v>1.359483459703277</v>
       </c>
       <c r="F11">
-        <v>0.8227750000000015</v>
+        <v>0.8738971374394071</v>
       </c>
       <c r="G11">
-        <v>0.4095874999999999</v>
+        <v>1.248855457822235</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.07329703369301814</v>
       </c>
       <c r="I11">
-        <v>1.577387499999999</v>
+        <v>1.200564394583324</v>
       </c>
       <c r="J11">
-        <v>0.5104125000000003</v>
+        <v>1.168875103966613</v>
       </c>
       <c r="K11">
-        <v>1.674025000000002</v>
+        <v>0.9300433111305988</v>
       </c>
       <c r="L11">
-        <v>0.19</v>
+        <v>0.4817158307967824</v>
       </c>
       <c r="M11">
-        <v>0.4095874999999999</v>
+        <v>1.248855457822235</v>
       </c>
       <c r="N11">
-        <v>0.2963937500000008</v>
+        <v>0.7163902466981478</v>
       </c>
       <c r="O11">
-        <v>0.4562875000000007</v>
+        <v>0.8888832721644844</v>
       </c>
       <c r="P11">
-        <v>0.7221218750000005</v>
+        <v>0.917091466141907</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6949599760384022</v>
+        <v>1.247774295371553</v>
       </c>
       <c r="D12">
-        <v>0.396083935232</v>
+        <v>0.07342730292086726</v>
       </c>
       <c r="E12">
-        <v>0.7861691326464018</v>
+        <v>1.363652708218439</v>
       </c>
       <c r="F12">
-        <v>0.9028008359935983</v>
+        <v>0.8756396546041382</v>
       </c>
       <c r="G12">
-        <v>0.6949599760384022</v>
+        <v>1.247774295371553</v>
       </c>
       <c r="H12">
-        <v>0.396083935232</v>
+        <v>0.07342730292086726</v>
       </c>
       <c r="I12">
-        <v>1.318388635443199</v>
+        <v>1.198145852783202</v>
       </c>
       <c r="J12">
-        <v>0.7275068732416011</v>
+        <v>1.171321402803311</v>
       </c>
       <c r="K12">
-        <v>1.375534365491198</v>
+        <v>0.9288338991225245</v>
       </c>
       <c r="L12">
-        <v>0.5318745195520009</v>
+        <v>0.4827602126371013</v>
       </c>
       <c r="M12">
-        <v>0.6949150515200011</v>
+        <v>1.247774295371553</v>
       </c>
       <c r="N12">
-        <v>0.5911265339392009</v>
+        <v>0.7185400055696531</v>
       </c>
       <c r="O12">
-        <v>0.6950034699776005</v>
+        <v>0.8901234902787494</v>
       </c>
       <c r="P12">
-        <v>0.8416647842048002</v>
+        <v>0.917694416057642</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9955268525962422</v>
+        <v>1.247381320248102</v>
       </c>
       <c r="D13">
-        <v>0.9957446280651487</v>
+        <v>0.07326047195728534</v>
       </c>
       <c r="E13">
-        <v>0.9868460505376425</v>
+        <v>1.362378545401238</v>
       </c>
       <c r="F13">
-        <v>0.9919090989159894</v>
+        <v>0.8747960804149979</v>
       </c>
       <c r="G13">
-        <v>0.9955268525962422</v>
+        <v>1.247381320248102</v>
       </c>
       <c r="H13">
-        <v>0.9957446280651487</v>
+        <v>0.07326047195728534</v>
       </c>
       <c r="I13">
-        <v>0.9942716407676722</v>
+        <v>1.200521685994359</v>
       </c>
       <c r="J13">
-        <v>0.9855713702367078</v>
+        <v>1.169207473477452</v>
       </c>
       <c r="K13">
-        <v>0.9925462142448677</v>
+        <v>0.9300442729081312</v>
       </c>
       <c r="L13">
-        <v>0.9940568618051426</v>
+        <v>0.4818118298024217</v>
       </c>
       <c r="M13">
-        <v>0.9954987230375348</v>
+        <v>1.247381320248102</v>
       </c>
       <c r="N13">
-        <v>0.9912953393013957</v>
+        <v>0.7178195086792619</v>
       </c>
       <c r="O13">
-        <v>0.9925066575287557</v>
+        <v>0.8894541045054059</v>
       </c>
       <c r="P13">
-        <v>0.9920590896461767</v>
+        <v>0.9174252100254985</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9013334036250382</v>
+        <v>0.3305079999999967</v>
       </c>
       <c r="D14">
-        <v>1.033470172030369</v>
+        <v>0.03816400000000007</v>
       </c>
       <c r="E14">
-        <v>0.9502916294589036</v>
+        <v>1.162688</v>
       </c>
       <c r="F14">
-        <v>0.9386454422073174</v>
+        <v>0.9542199999999997</v>
       </c>
       <c r="G14">
-        <v>0.9013334036250382</v>
+        <v>0.3305079999999967</v>
       </c>
       <c r="H14">
-        <v>1.033470172030369</v>
+        <v>0.03816400000000007</v>
       </c>
       <c r="I14">
-        <v>0.9380574701864866</v>
+        <v>1.437944000000002</v>
       </c>
       <c r="J14">
-        <v>1.092376736792457</v>
+        <v>0.8471760000000002</v>
       </c>
       <c r="K14">
-        <v>0.9997066688280566</v>
+        <v>1.325852000000001</v>
       </c>
       <c r="L14">
-        <v>0.9617712624077653</v>
+        <v>0.3745759999999998</v>
       </c>
       <c r="M14">
-        <v>0.9013334036250382</v>
+        <v>0.3305079999999967</v>
       </c>
       <c r="N14">
-        <v>0.9918809007446361</v>
+        <v>0.6004259999999999</v>
       </c>
       <c r="O14">
-        <v>0.9559351618304068</v>
+        <v>0.621394999999999</v>
       </c>
       <c r="P14">
-        <v>0.9769565981920492</v>
+        <v>0.8088909999999998</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.930476693622556</v>
+        <v>0.4095874999999999</v>
       </c>
       <c r="D15">
-        <v>1.083185521174754</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9555256776006361</v>
+        <v>0.5927875000000016</v>
       </c>
       <c r="F15">
-        <v>1.026233510769793</v>
+        <v>0.8227750000000015</v>
       </c>
       <c r="G15">
-        <v>0.930476693622556</v>
+        <v>0.4095874999999999</v>
       </c>
       <c r="H15">
-        <v>1.083185521174754</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9291280846667651</v>
+        <v>1.577387499999999</v>
       </c>
       <c r="J15">
-        <v>1.032022717645343</v>
+        <v>0.5104125000000003</v>
       </c>
       <c r="K15">
-        <v>0.9620864756394276</v>
+        <v>1.674025000000002</v>
       </c>
       <c r="L15">
-        <v>1.066398590217768</v>
+        <v>0.19</v>
       </c>
       <c r="M15">
-        <v>0.9304201384045221</v>
+        <v>0.4095874999999999</v>
       </c>
       <c r="N15">
-        <v>1.019355599387695</v>
+        <v>0.2963937500000008</v>
       </c>
       <c r="O15">
-        <v>0.9988553507919349</v>
+        <v>0.4562875000000007</v>
       </c>
       <c r="P15">
-        <v>0.9981321589171304</v>
+        <v>0.7221218750000005</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9783622755493311</v>
+        <v>0.6949599760384022</v>
       </c>
       <c r="D16">
-        <v>0.7742431438492958</v>
+        <v>0.396083935232</v>
       </c>
       <c r="E16">
-        <v>0.8977956654838386</v>
+        <v>0.7861691326464018</v>
       </c>
       <c r="F16">
-        <v>0.8651770259480333</v>
+        <v>0.9028008359935983</v>
       </c>
       <c r="G16">
-        <v>0.9783622755493311</v>
+        <v>0.6949599760384022</v>
       </c>
       <c r="H16">
-        <v>0.7742431438492958</v>
+        <v>0.396083935232</v>
       </c>
       <c r="I16">
-        <v>1.17407315656008</v>
+        <v>1.318388635443199</v>
       </c>
       <c r="J16">
-        <v>0.8497568785102666</v>
+        <v>0.7275068732416011</v>
       </c>
       <c r="K16">
-        <v>1.078894377174901</v>
+        <v>1.375534365491198</v>
       </c>
       <c r="L16">
-        <v>0.8964656254791129</v>
+        <v>0.5318745195520009</v>
       </c>
       <c r="M16">
-        <v>0.9783622755493311</v>
+        <v>0.6949150515200011</v>
       </c>
       <c r="N16">
-        <v>0.8360194046665672</v>
+        <v>0.5911265339392009</v>
       </c>
       <c r="O16">
-        <v>0.8788945277076247</v>
+        <v>0.6950034699776005</v>
       </c>
       <c r="P16">
-        <v>0.9393460185693574</v>
+        <v>0.8416647842048002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.995526852596242</v>
+      </c>
+      <c r="D17">
+        <v>0.9957446280651487</v>
+      </c>
+      <c r="E17">
+        <v>0.9868460505376425</v>
+      </c>
+      <c r="F17">
+        <v>0.9919090989159894</v>
+      </c>
+      <c r="G17">
+        <v>0.995526852596242</v>
+      </c>
+      <c r="H17">
+        <v>0.9957446280651487</v>
+      </c>
+      <c r="I17">
+        <v>0.9942716407676722</v>
+      </c>
+      <c r="J17">
+        <v>0.9855713702367078</v>
+      </c>
+      <c r="K17">
+        <v>0.9925462142448677</v>
+      </c>
+      <c r="L17">
+        <v>0.9940568618051426</v>
+      </c>
+      <c r="M17">
+        <v>0.9954987230375346</v>
+      </c>
+      <c r="N17">
+        <v>0.9912953393013957</v>
+      </c>
+      <c r="O17">
+        <v>0.9925066575287557</v>
+      </c>
+      <c r="P17">
+        <v>0.9920590896461766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9013334036250382</v>
+      </c>
+      <c r="D18">
+        <v>1.033470172030369</v>
+      </c>
+      <c r="E18">
+        <v>0.9502916294589036</v>
+      </c>
+      <c r="F18">
+        <v>0.9386454422073174</v>
+      </c>
+      <c r="G18">
+        <v>0.9013334036250382</v>
+      </c>
+      <c r="H18">
+        <v>1.033470172030369</v>
+      </c>
+      <c r="I18">
+        <v>0.9380574701864866</v>
+      </c>
+      <c r="J18">
+        <v>1.092376736792457</v>
+      </c>
+      <c r="K18">
+        <v>0.9997066688280566</v>
+      </c>
+      <c r="L18">
+        <v>0.9617712624077653</v>
+      </c>
+      <c r="M18">
+        <v>0.9013334036250382</v>
+      </c>
+      <c r="N18">
+        <v>0.9918809007446361</v>
+      </c>
+      <c r="O18">
+        <v>0.9559351618304068</v>
+      </c>
+      <c r="P18">
+        <v>0.9769565981920492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9304766936225563</v>
+      </c>
+      <c r="D19">
+        <v>1.083185521174754</v>
+      </c>
+      <c r="E19">
+        <v>0.9555256776006366</v>
+      </c>
+      <c r="F19">
+        <v>1.026233510769793</v>
+      </c>
+      <c r="G19">
+        <v>0.9304766936225563</v>
+      </c>
+      <c r="H19">
+        <v>1.083185521174754</v>
+      </c>
+      <c r="I19">
+        <v>0.9291280846667651</v>
+      </c>
+      <c r="J19">
+        <v>1.032022717645343</v>
+      </c>
+      <c r="K19">
+        <v>0.9620864756394276</v>
+      </c>
+      <c r="L19">
+        <v>1.066398590217768</v>
+      </c>
+      <c r="M19">
+        <v>0.9304201384045221</v>
+      </c>
+      <c r="N19">
+        <v>1.019355599387695</v>
+      </c>
+      <c r="O19">
+        <v>0.9988553507919351</v>
+      </c>
+      <c r="P19">
+        <v>0.9981321589171304</v>
       </c>
     </row>
   </sheetData>
